--- a/data/csvs_to_be_processed/CSV Files Metadata.xlsx
+++ b/data/csvs_to_be_processed/CSV Files Metadata.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdebe\Documents\GitHub\Climate_Obstruction\data\csvs_to_be_processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5539A9-B5EC-425C-8C12-B4B1BD4E91B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A71D6A-FD63-487D-89BB-98D6C0C6BC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7845" yWindow="1755" windowWidth="20250" windowHeight="14070" xr2:uid="{A661D95E-FD5E-460D-A9B0-E2DF9986D997}"/>
+    <workbookView xWindow="7845" yWindow="1410" windowWidth="20250" windowHeight="14070" activeTab="1" xr2:uid="{A661D95E-FD5E-460D-A9B0-E2DF9986D997}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Metadata" sheetId="1" r:id="rId1"/>
+    <sheet name="In Progress" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>File</t>
   </si>
@@ -120,16 +121,42 @@
   </si>
   <si>
     <t>Metadata: Scraped by Aadarsh Balaji on 3/22/25 from https://climatecasechart.com/non-us-case-category/investor-state-dispute-settlement/</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Jacob</t>
+  </si>
+  <si>
+    <t>https://www.desmog.com/advertising-pr-database/</t>
+  </si>
+  <si>
+    <t>Aadarsh</t>
+  </si>
+  <si>
+    <t> https://www.desmog.com/air-pollution-lobbying-database/ </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -152,10 +179,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -163,8 +191,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -499,7 +529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38CEAE1-D44C-477C-92A6-643303EACF3C}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -752,4 +782,51 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272D9631-D012-4061-9363-92312027AB32}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="56" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{501E1760-1CEC-4998-8128-E97980A6C425}"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://www.desmog.com/air-pollution-lobbying-database/" xr:uid="{F417889D-5A7B-4C43-B9DF-153C6AE3C243}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>